--- a/transaction-service/src/main/resources/transactions.xlsx
+++ b/transaction-service/src/main/resources/transactions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -44,60 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nintendo Switch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment to Shreyansh Kaushik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-21</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
-    <t>iPhone</t>
-  </si>
-  <si>
-    <t>2025-07-12</t>
-  </si>
-  <si>
-    <t>PS5</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>Nintendo Switch 2</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>Payment to Shreyansh Kaushik</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-23</t>
   </si>
 </sst>
 </file>
@@ -376,18 +322,18 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" style="1" width="8.0" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="24.92" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="11.7" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="10.04" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,90 +350,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2" t="n" s="1">
-        <v>1900.0</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>16</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n" s="1">
-        <v>950.0</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>18</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>799.99</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>550.0</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C6" t="n" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
